--- a/calcs.xlsx
+++ b/calcs.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,7 +67,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -367,56 +370,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>0.17</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B1">
         <v>255</v>
       </c>
       <c r="C1">
         <f>ROUND(B1*A1,0)</f>
-        <v>43</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>11</v>
+        <v>10.65</v>
       </c>
       <c r="B3" s="3">
         <f>A3*A4/(A4+A5)</f>
-        <v>3.6666666666666665</v>
+        <v>0.50714285714285712</v>
       </c>
       <c r="C3">
         <f>ROUND(B3*1024/A6,0)</f>
-        <v>736</v>
-      </c>
-      <c r="D3">
-        <f>ROUND(C3/4,0)</f>
-        <v>184</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/calcs.xlsx
+++ b/calcs.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -67,7 +67,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -370,9 +370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -390,15 +392,15 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>10.65</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B3" s="3">
         <f>A3*A4/(A4+A5)</f>
-        <v>0.50714285714285712</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="C3">
         <f>ROUND(B3*1024/A6,0)</f>
-        <v>472</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -414,6 +416,15 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B8">
+        <f>A3/A8</f>
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>
